--- a/biology/Médecine/CIM-10_Chapitre_15___Grossesse,_accouchement_et_post-partum/CIM-10_Chapitre_15___Grossesse,_accouchement_et_post-partum.xlsx
+++ b/biology/Médecine/CIM-10_Chapitre_15___Grossesse,_accouchement_et_post-partum/CIM-10_Chapitre_15___Grossesse,_accouchement_et_post-partum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet article développe le chapitre XV de la classification internationale des maladies, CIM-10[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet article développe le chapitre XV de la classification internationale des maladies, CIM-10.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>(O00–O08) Grossesse se terminant par un avortement</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>(O00) Grossesse extra-utérine
 (O01) Môle hydatiforme
@@ -549,7 +563,9 @@
           <t>(O10–O16) - Œdème, protéinurie et hypertension au cours de la grossesse, de l'accouchement et de la puerpéralité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(O10) Hypertension artérielle préexistante, compliquant la grossesse, l'accouchement et le post-partum
 (O11) Syndrome hypertensif préexistant, avec protéinurie surajoutée 
@@ -587,7 +603,9 @@
           <t>(O20–O29) - Autre pathologie maternelle principalement liées à la grossesse</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(O20) Hémorragie en début de grossesse
 O21) Vomissement incoercibles au cours de la grossesse
@@ -648,7 +666,9 @@
           <t>(O30–O48) - Soins maternels liés au fœtus et à la cavité amniotique, et problèmes possibles posés par l'accouchement</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(O30) Grossesse multiple
 (O30.0) Jumeaux
@@ -719,7 +739,9 @@
           <t>(O60–O75) - Complications du travail et de l'accouchement</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>(O60) Enfant prématuré
 (O61) Echec du déclenchement du travail 
@@ -786,7 +808,9 @@
           <t>(O80–O84) - Accouchement</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>(O80) Accouchement unique et spontané
 (O80.1) Accouchement spontané par présentation du siège
@@ -822,7 +846,9 @@
           <t>(O85–O92) - Complications principalement liées à la naissance, post-partum</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>(O85) Fièvre puerpérale
 (O86) Autres infections puerpérale
@@ -881,7 +907,9 @@
           <t>(O95–O99) - Autres conditions obstétricales, non classés ailleurs</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>(O94) Séquelles de complications de la grossesse, de l'accouchement et de la puerpéralité
 (O95) Mort maternelle d'origine obstétricale de cause non précisée
